--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tgm2-Sdc4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tgm2-Sdc4.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.0051758904736</v>
+        <v>57.319636</v>
       </c>
       <c r="H2">
-        <v>55.0051758904736</v>
+        <v>171.958908</v>
       </c>
       <c r="I2">
-        <v>0.5890442543440267</v>
+        <v>0.5476981520382651</v>
       </c>
       <c r="J2">
-        <v>0.5890442543440267</v>
+        <v>0.5476981520382651</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.18686435064815</v>
+        <v>3.438907666666667</v>
       </c>
       <c r="N2">
-        <v>2.18686435064815</v>
+        <v>10.316723</v>
       </c>
       <c r="O2">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="P2">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="Q2">
-        <v>120.2888582560078</v>
+        <v>197.1169356909427</v>
       </c>
       <c r="R2">
-        <v>120.2888582560078</v>
+        <v>1774.052421218484</v>
       </c>
       <c r="S2">
-        <v>0.0241451538938709</v>
+        <v>0.03190573050493627</v>
       </c>
       <c r="T2">
-        <v>0.0241451538938709</v>
+        <v>0.03190573050493627</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.0051758904736</v>
+        <v>57.319636</v>
       </c>
       <c r="H3">
-        <v>55.0051758904736</v>
+        <v>171.958908</v>
       </c>
       <c r="I3">
-        <v>0.5890442543440267</v>
+        <v>0.5476981520382651</v>
       </c>
       <c r="J3">
-        <v>0.5890442543440267</v>
+        <v>0.5476981520382651</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.3350883614071</v>
+        <v>10.383857</v>
       </c>
       <c r="N3">
-        <v>10.3350883614071</v>
+        <v>31.151571</v>
       </c>
       <c r="O3">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="P3">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="Q3">
-        <v>568.4833531627842</v>
+        <v>595.198903516052</v>
       </c>
       <c r="R3">
-        <v>568.4833531627842</v>
+        <v>5356.790131644469</v>
       </c>
       <c r="S3">
-        <v>0.1141096378103966</v>
+        <v>0.0963400518877349</v>
       </c>
       <c r="T3">
-        <v>0.1141096378103966</v>
+        <v>0.0963400518877349</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.0051758904736</v>
+        <v>57.319636</v>
       </c>
       <c r="H4">
-        <v>55.0051758904736</v>
+        <v>171.958908</v>
       </c>
       <c r="I4">
-        <v>0.5890442543440267</v>
+        <v>0.5476981520382651</v>
       </c>
       <c r="J4">
-        <v>0.5890442543440267</v>
+        <v>0.5476981520382651</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.1076762226289</v>
+        <v>25.34077833333333</v>
       </c>
       <c r="N4">
-        <v>23.1076762226289</v>
+        <v>76.022335</v>
       </c>
       <c r="O4">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="P4">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="Q4">
-        <v>1271.041795045817</v>
+        <v>1452.524190023353</v>
       </c>
       <c r="R4">
-        <v>1271.041795045817</v>
+        <v>13072.71771021018</v>
       </c>
       <c r="S4">
-        <v>0.2551316904314402</v>
+        <v>0.2351083898313431</v>
       </c>
       <c r="T4">
-        <v>0.2551316904314402</v>
+        <v>0.2351083898313432</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.0051758904736</v>
+        <v>57.319636</v>
       </c>
       <c r="H5">
-        <v>55.0051758904736</v>
+        <v>171.958908</v>
       </c>
       <c r="I5">
-        <v>0.5890442543440267</v>
+        <v>0.5476981520382651</v>
       </c>
       <c r="J5">
-        <v>0.5890442543440267</v>
+        <v>0.5476981520382651</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.7210304332839</v>
+        <v>19.86921833333334</v>
       </c>
       <c r="N5">
-        <v>17.7210304332839</v>
+        <v>59.60765500000001</v>
       </c>
       <c r="O5">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="P5">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="Q5">
-        <v>974.7483959432166</v>
+        <v>1138.896362471193</v>
       </c>
       <c r="R5">
-        <v>974.7483959432166</v>
+        <v>10250.06726224074</v>
       </c>
       <c r="S5">
-        <v>0.1956577722083191</v>
+        <v>0.1843439798142508</v>
       </c>
       <c r="T5">
-        <v>0.1956577722083191</v>
+        <v>0.1843439798142508</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.95852678880209</v>
+        <v>5.975184333333334</v>
       </c>
       <c r="H6">
-        <v>5.95852678880209</v>
+        <v>17.925553</v>
       </c>
       <c r="I6">
-        <v>0.06380919454357581</v>
+        <v>0.05709382762749331</v>
       </c>
       <c r="J6">
-        <v>0.06380919454357581</v>
+        <v>0.05709382762749331</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.18686435064815</v>
+        <v>3.438907666666667</v>
       </c>
       <c r="N6">
-        <v>2.18686435064815</v>
+        <v>10.316723</v>
       </c>
       <c r="O6">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="P6">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="Q6">
-        <v>13.03048981681329</v>
+        <v>20.54810721364656</v>
       </c>
       <c r="R6">
-        <v>13.03048981681329</v>
+        <v>184.932964922819</v>
       </c>
       <c r="S6">
-        <v>0.002615563789539591</v>
+        <v>0.003325956589407696</v>
       </c>
       <c r="T6">
-        <v>0.002615563789539591</v>
+        <v>0.003325956589407696</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.95852678880209</v>
+        <v>5.975184333333334</v>
       </c>
       <c r="H7">
-        <v>5.95852678880209</v>
+        <v>17.925553</v>
       </c>
       <c r="I7">
-        <v>0.06380919454357581</v>
+        <v>0.05709382762749331</v>
       </c>
       <c r="J7">
-        <v>0.06380919454357581</v>
+        <v>0.05709382762749331</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.3350883614071</v>
+        <v>10.383857</v>
       </c>
       <c r="N7">
-        <v>10.3350883614071</v>
+        <v>31.151571</v>
       </c>
       <c r="O7">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="P7">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="Q7">
-        <v>61.58190086608091</v>
+        <v>62.04545966597367</v>
       </c>
       <c r="R7">
-        <v>61.58190086608091</v>
+        <v>558.409136993763</v>
       </c>
       <c r="S7">
-        <v>0.0123611155267937</v>
+        <v>0.01004279874896822</v>
       </c>
       <c r="T7">
-        <v>0.0123611155267937</v>
+        <v>0.01004279874896822</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.95852678880209</v>
+        <v>5.975184333333334</v>
       </c>
       <c r="H8">
-        <v>5.95852678880209</v>
+        <v>17.925553</v>
       </c>
       <c r="I8">
-        <v>0.06380919454357581</v>
+        <v>0.05709382762749331</v>
       </c>
       <c r="J8">
-        <v>0.06380919454357581</v>
+        <v>0.05709382762749331</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.1076762226289</v>
+        <v>25.34077833333333</v>
       </c>
       <c r="N8">
-        <v>23.1076762226289</v>
+        <v>76.022335</v>
       </c>
       <c r="O8">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="P8">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="Q8">
-        <v>137.6877077994994</v>
+        <v>151.4158216918061</v>
       </c>
       <c r="R8">
-        <v>137.6877077994994</v>
+        <v>1362.742395226255</v>
       </c>
       <c r="S8">
-        <v>0.02763756296562238</v>
+        <v>0.0245084593271923</v>
       </c>
       <c r="T8">
-        <v>0.02763756296562238</v>
+        <v>0.0245084593271923</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.95852678880209</v>
+        <v>5.975184333333334</v>
       </c>
       <c r="H9">
-        <v>5.95852678880209</v>
+        <v>17.925553</v>
       </c>
       <c r="I9">
-        <v>0.06380919454357581</v>
+        <v>0.05709382762749331</v>
       </c>
       <c r="J9">
-        <v>0.06380919454357581</v>
+        <v>0.05709382762749331</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.7210304332839</v>
+        <v>19.86921833333334</v>
       </c>
       <c r="N9">
-        <v>17.7210304332839</v>
+        <v>59.60765500000001</v>
       </c>
       <c r="O9">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="P9">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="Q9">
-        <v>105.5912345618992</v>
+        <v>118.7222421009128</v>
       </c>
       <c r="R9">
-        <v>105.5912345618992</v>
+        <v>1068.500178908215</v>
       </c>
       <c r="S9">
-        <v>0.02119495226162014</v>
+        <v>0.01921661296192508</v>
       </c>
       <c r="T9">
-        <v>0.02119495226162014</v>
+        <v>0.01921661296192509</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.9192973812105</v>
+        <v>32.32302533333333</v>
       </c>
       <c r="H10">
-        <v>26.9192973812105</v>
+        <v>96.969076</v>
       </c>
       <c r="I10">
-        <v>0.2882757339955435</v>
+        <v>0.3088515991858827</v>
       </c>
       <c r="J10">
-        <v>0.2882757339955435</v>
+        <v>0.3088515991858827</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.18686435064815</v>
+        <v>3.438907666666667</v>
       </c>
       <c r="N10">
-        <v>2.18686435064815</v>
+        <v>10.316723</v>
       </c>
       <c r="O10">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="P10">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="Q10">
-        <v>58.86885178746535</v>
+        <v>111.1558996286609</v>
       </c>
       <c r="R10">
-        <v>58.86885178746535</v>
+        <v>1000.403096657948</v>
       </c>
       <c r="S10">
-        <v>0.0118165348526187</v>
+        <v>0.01799191005660889</v>
       </c>
       <c r="T10">
-        <v>0.0118165348526187</v>
+        <v>0.01799191005660889</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>26.9192973812105</v>
+        <v>32.32302533333333</v>
       </c>
       <c r="H11">
-        <v>26.9192973812105</v>
+        <v>96.969076</v>
       </c>
       <c r="I11">
-        <v>0.2882757339955435</v>
+        <v>0.3088515991858827</v>
       </c>
       <c r="J11">
-        <v>0.2882757339955435</v>
+        <v>0.3088515991858827</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.3350883614071</v>
+        <v>10.383857</v>
       </c>
       <c r="N11">
-        <v>10.3350883614071</v>
+        <v>31.151571</v>
       </c>
       <c r="O11">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="P11">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="Q11">
-        <v>278.2133170618053</v>
+        <v>335.6376728687107</v>
       </c>
       <c r="R11">
-        <v>278.2133170618053</v>
+        <v>3020.739055818396</v>
       </c>
       <c r="S11">
-        <v>0.05584476777961338</v>
+        <v>0.05432696637818675</v>
       </c>
       <c r="T11">
-        <v>0.05584476777961338</v>
+        <v>0.05432696637818675</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>26.9192973812105</v>
+        <v>32.32302533333333</v>
       </c>
       <c r="H12">
-        <v>26.9192973812105</v>
+        <v>96.969076</v>
       </c>
       <c r="I12">
-        <v>0.2882757339955435</v>
+        <v>0.3088515991858827</v>
       </c>
       <c r="J12">
-        <v>0.2882757339955435</v>
+        <v>0.3088515991858827</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.1076762226289</v>
+        <v>25.34077833333333</v>
       </c>
       <c r="N12">
-        <v>23.1076762226289</v>
+        <v>76.022335</v>
       </c>
       <c r="O12">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="P12">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="Q12">
-        <v>622.0424080256744</v>
+        <v>819.0906200347177</v>
       </c>
       <c r="R12">
-        <v>622.0424080256744</v>
+        <v>7371.81558031246</v>
       </c>
       <c r="S12">
-        <v>0.1248603560466815</v>
+        <v>0.1325796004810239</v>
       </c>
       <c r="T12">
-        <v>0.1248603560466815</v>
+        <v>0.1325796004810239</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>26.9192973812105</v>
+        <v>32.32302533333333</v>
       </c>
       <c r="H13">
-        <v>26.9192973812105</v>
+        <v>96.969076</v>
       </c>
       <c r="I13">
-        <v>0.2882757339955435</v>
+        <v>0.3088515991858827</v>
       </c>
       <c r="J13">
-        <v>0.2882757339955435</v>
+        <v>0.3088515991858827</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.7210304332839</v>
+        <v>19.86921833333334</v>
       </c>
       <c r="N13">
-        <v>17.7210304332839</v>
+        <v>59.60765500000001</v>
       </c>
       <c r="O13">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="P13">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="Q13">
-        <v>477.0376881350509</v>
+        <v>642.2332475418646</v>
       </c>
       <c r="R13">
-        <v>477.0376881350509</v>
+        <v>5780.099227876781</v>
       </c>
       <c r="S13">
-        <v>0.09575407531662994</v>
+        <v>0.1039531222700632</v>
       </c>
       <c r="T13">
-        <v>0.09575407531662994</v>
+        <v>0.1039531222700632</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.49737923160728</v>
+        <v>9.037676333333334</v>
       </c>
       <c r="H14">
-        <v>5.49737923160728</v>
+        <v>27.113029</v>
       </c>
       <c r="I14">
-        <v>0.05887081711685383</v>
+        <v>0.08635642114835883</v>
       </c>
       <c r="J14">
-        <v>0.05887081711685383</v>
+        <v>0.08635642114835884</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.18686435064815</v>
+        <v>3.438907666666667</v>
       </c>
       <c r="N14">
-        <v>2.18686435064815</v>
+        <v>10.316723</v>
       </c>
       <c r="O14">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="P14">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="Q14">
-        <v>12.02202266359548</v>
+        <v>31.07973443155189</v>
       </c>
       <c r="R14">
-        <v>12.02202266359548</v>
+        <v>279.717609883967</v>
       </c>
       <c r="S14">
-        <v>0.002413137771333189</v>
+        <v>0.005030626249653327</v>
       </c>
       <c r="T14">
-        <v>0.002413137771333189</v>
+        <v>0.005030626249653328</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.49737923160728</v>
+        <v>9.037676333333334</v>
       </c>
       <c r="H15">
-        <v>5.49737923160728</v>
+        <v>27.113029</v>
       </c>
       <c r="I15">
-        <v>0.05887081711685383</v>
+        <v>0.08635642114835883</v>
       </c>
       <c r="J15">
-        <v>0.05887081711685383</v>
+        <v>0.08635642114835884</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.3350883614071</v>
+        <v>10.383857</v>
       </c>
       <c r="N15">
-        <v>10.3350883614071</v>
+        <v>31.151571</v>
       </c>
       <c r="O15">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="P15">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="Q15">
-        <v>56.8159001148255</v>
+        <v>93.84593865761768</v>
       </c>
       <c r="R15">
-        <v>56.8159001148255</v>
+        <v>844.613447918559</v>
       </c>
       <c r="S15">
-        <v>0.01140445317862798</v>
+        <v>0.01519008611460629</v>
       </c>
       <c r="T15">
-        <v>0.01140445317862798</v>
+        <v>0.01519008611460629</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.49737923160728</v>
+        <v>9.037676333333334</v>
       </c>
       <c r="H16">
-        <v>5.49737923160728</v>
+        <v>27.113029</v>
       </c>
       <c r="I16">
-        <v>0.05887081711685383</v>
+        <v>0.08635642114835883</v>
       </c>
       <c r="J16">
-        <v>0.05887081711685383</v>
+        <v>0.08635642114835884</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.1076762226289</v>
+        <v>25.34077833333333</v>
       </c>
       <c r="N16">
-        <v>23.1076762226289</v>
+        <v>76.022335</v>
       </c>
       <c r="O16">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="P16">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="Q16">
-        <v>127.0316593569855</v>
+        <v>229.0217526114128</v>
       </c>
       <c r="R16">
-        <v>127.0316593569855</v>
+        <v>2061.195773502715</v>
       </c>
       <c r="S16">
-        <v>0.0254986123323272</v>
+        <v>0.03706990621061929</v>
       </c>
       <c r="T16">
-        <v>0.0254986123323272</v>
+        <v>0.0370699062106193</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.49737923160728</v>
+        <v>9.037676333333334</v>
       </c>
       <c r="H17">
-        <v>5.49737923160728</v>
+        <v>27.113029</v>
       </c>
       <c r="I17">
-        <v>0.05887081711685383</v>
+        <v>0.08635642114835883</v>
       </c>
       <c r="J17">
-        <v>0.05887081711685383</v>
+        <v>0.08635642114835884</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.7210304332839</v>
+        <v>19.86921833333334</v>
       </c>
       <c r="N17">
-        <v>17.7210304332839</v>
+        <v>59.60765500000001</v>
       </c>
       <c r="O17">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="P17">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="Q17">
-        <v>97.41922466661546</v>
+        <v>179.5715642929995</v>
       </c>
       <c r="R17">
-        <v>97.41922466661546</v>
+        <v>1616.144078636995</v>
       </c>
       <c r="S17">
-        <v>0.01955461383456546</v>
+        <v>0.02906580257347991</v>
       </c>
       <c r="T17">
-        <v>0.01955461383456546</v>
+        <v>0.02906580257347992</v>
       </c>
     </row>
   </sheetData>
